--- a/biology/Médecine/Apyrexie/Apyrexie.xlsx
+++ b/biology/Médecine/Apyrexie/Apyrexie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme médical apyrexie, issu du latin a-pyretus, venant du grec ancien : απυρεξια (α-, préfixe privatif et grec ancien : πυρεσσειν, être fiévreux, du grec ancien : πῦρ feu), signifie l'absence de fièvre[1] pour un être humain : le corps est à sa température ordinaire (37 °C en moyenne).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme médical apyrexie, issu du latin a-pyretus, venant du grec ancien : απυρεξια (α-, préfixe privatif et grec ancien : πυρεσσειν, être fiévreux, du grec ancien : πῦρ feu), signifie l'absence de fièvre pour un être humain : le corps est à sa température ordinaire (37 °C en moyenne).
 Il est généralement utilisé pour remarquer l'absence de fièvre dans un contexte où elle devrait être présente, ou dans le cas d'un développement favorable d'une thérapie contre la fièvre.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Cas d'observation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le paludisme, entre autres, le terme est utilisé comme synonyme de cessation de la fièvre en réponse à un traitement[2].
-Dans une forme de fièvre récurrente à tiques, dues au spirochète Borrelia duttoni transmis de l'animal à l'homme par divers tiques du genre Ornithodoros, dite centre-africaine, transmise par le liquide coxal d'Ornithodorus moubata, le sujet, après une première période fébrile de un  à deux jours, présente de très nombreuses récurrences, plus de dix parfois, séparées par des apyrexies de durée très variable pouvant aller de un jour à trois semaines[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le paludisme, entre autres, le terme est utilisé comme synonyme de cessation de la fièvre en réponse à un traitement.
+Dans une forme de fièvre récurrente à tiques, dues au spirochète Borrelia duttoni transmis de l'animal à l'homme par divers tiques du genre Ornithodoros, dite centre-africaine, transmise par le liquide coxal d'Ornithodorus moubata, le sujet, après une première période fébrile de un  à deux jours, présente de très nombreuses récurrences, plus de dix parfois, séparées par des apyrexies de durée très variable pouvant aller de un jour à trois semaines,.
 </t>
         </is>
       </c>
